--- a/2007-xlsx/25-KW10 Time-Sheet.xlsx
+++ b/2007-xlsx/25-KW10 Time-Sheet.xlsx
@@ -944,8 +944,8 @@
   </sheetPr>
   <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A7" colorId="64" zoomScale="176" zoomScaleNormal="100" zoomScalePageLayoutView="176" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="149" zoomScaleNormal="100" zoomScalePageLayoutView="149" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H57" activeCellId="0" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3359375" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1100,7 +1100,7 @@
       <c r="J9" s="28"/>
       <c r="K9" s="29"/>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H10" s="31"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1372,14 +1372,14 @@
       <c r="A26" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
       <c r="H26" s="52" t="n">
         <v>2</v>
       </c>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="K31" s="45"/>
     </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="48"/>
       <c r="B32" s="49"/>
       <c r="C32" s="49"/>
@@ -1533,7 +1533,7 @@
       <c r="M33" s="36"/>
     </row>
     <row r="34" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="33"/>
+      <c r="A34" s="50"/>
       <c r="B34" s="51"/>
       <c r="C34" s="51"/>
       <c r="D34" s="51"/>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="K41" s="45"/>
     </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="48"/>
       <c r="B42" s="49"/>
       <c r="C42" s="49"/>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="K51" s="45"/>
     </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="48"/>
       <c r="B52" s="49"/>
       <c r="C52" s="49"/>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="K60" s="45"/>
     </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="48"/>
       <c r="B61" s="49"/>
       <c r="C61" s="49"/>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="K67" s="63"/>
     </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="48"/>
       <c r="B68" s="49"/>
       <c r="C68" s="49"/>
@@ -2226,7 +2226,7 @@
       <c r="J68" s="48"/>
       <c r="K68" s="48"/>
     </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="48"/>
       <c r="B69" s="49"/>
       <c r="C69" s="49"/>
@@ -2239,7 +2239,7 @@
       <c r="J69" s="48"/>
       <c r="K69" s="48"/>
     </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="48"/>
       <c r="B70" s="49"/>
       <c r="C70" s="49"/>
@@ -2252,7 +2252,7 @@
       <c r="J70" s="48"/>
       <c r="K70" s="48"/>
     </row>
-    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="48"/>
       <c r="B71" s="49"/>
       <c r="C71" s="49"/>
@@ -2265,7 +2265,7 @@
       <c r="J71" s="48"/>
       <c r="K71" s="48"/>
     </row>
-    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="48"/>
       <c r="B72" s="49"/>
       <c r="C72" s="49"/>
@@ -2278,7 +2278,7 @@
       <c r="J72" s="48"/>
       <c r="K72" s="48"/>
     </row>
-    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="48"/>
       <c r="B73" s="49"/>
       <c r="C73" s="49"/>
@@ -2291,7 +2291,7 @@
       <c r="J73" s="48"/>
       <c r="K73" s="48"/>
     </row>
-    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="48"/>
       <c r="B74" s="49"/>
       <c r="C74" s="49"/>
@@ -2304,7 +2304,7 @@
       <c r="J74" s="48"/>
       <c r="K74" s="48"/>
     </row>
-    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="48"/>
       <c r="B75" s="49"/>
       <c r="C75" s="49"/>
@@ -2317,7 +2317,7 @@
       <c r="J75" s="48"/>
       <c r="K75" s="48"/>
     </row>
-    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="48"/>
       <c r="B76" s="49"/>
       <c r="C76" s="49"/>
@@ -2330,7 +2330,7 @@
       <c r="J76" s="48"/>
       <c r="K76" s="48"/>
     </row>
-    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="48"/>
       <c r="B77" s="49"/>
       <c r="C77" s="49"/>
@@ -2343,7 +2343,7 @@
       <c r="J77" s="48"/>
       <c r="K77" s="48"/>
     </row>
-    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="48"/>
       <c r="B78" s="49"/>
       <c r="C78" s="49"/>
@@ -2356,7 +2356,7 @@
       <c r="J78" s="48"/>
       <c r="K78" s="48"/>
     </row>
-    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="48"/>
       <c r="B79" s="49"/>
       <c r="C79" s="49"/>
@@ -2369,7 +2369,7 @@
       <c r="J79" s="48"/>
       <c r="K79" s="48"/>
     </row>
-    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="48"/>
       <c r="B80" s="49"/>
       <c r="C80" s="49"/>
@@ -2382,7 +2382,7 @@
       <c r="J80" s="48"/>
       <c r="K80" s="48"/>
     </row>
-    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="48"/>
       <c r="B81" s="49"/>
       <c r="C81" s="49"/>
@@ -2395,7 +2395,7 @@
       <c r="J81" s="48"/>
       <c r="K81" s="48"/>
     </row>
-    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="48"/>
       <c r="B82" s="49"/>
       <c r="C82" s="49"/>
@@ -2408,7 +2408,7 @@
       <c r="J82" s="48"/>
       <c r="K82" s="48"/>
     </row>
-    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="48"/>
       <c r="B83" s="49"/>
       <c r="C83" s="49"/>
@@ -2421,7 +2421,7 @@
       <c r="J83" s="48"/>
       <c r="K83" s="48"/>
     </row>
-    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="48"/>
       <c r="B84" s="49"/>
       <c r="C84" s="49"/>
@@ -2434,7 +2434,7 @@
       <c r="J84" s="48"/>
       <c r="K84" s="48"/>
     </row>
-    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="48"/>
       <c r="B85" s="49"/>
       <c r="C85" s="49"/>
@@ -2447,7 +2447,7 @@
       <c r="J85" s="48"/>
       <c r="K85" s="48"/>
     </row>
-    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="48"/>
       <c r="B86" s="49"/>
       <c r="C86" s="49"/>
@@ -2460,7 +2460,7 @@
       <c r="J86" s="48"/>
       <c r="K86" s="48"/>
     </row>
-    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="48"/>
       <c r="B87" s="49"/>
       <c r="C87" s="49"/>
@@ -2473,7 +2473,7 @@
       <c r="J87" s="48"/>
       <c r="K87" s="48"/>
     </row>
-    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="48"/>
       <c r="B88" s="49"/>
       <c r="C88" s="49"/>
@@ -2486,7 +2486,7 @@
       <c r="J88" s="48"/>
       <c r="K88" s="48"/>
     </row>
-    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="48"/>
       <c r="B89" s="49"/>
       <c r="C89" s="49"/>
@@ -2499,7 +2499,7 @@
       <c r="J89" s="48"/>
       <c r="K89" s="48"/>
     </row>
-    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="48"/>
       <c r="B90" s="49"/>
       <c r="C90" s="49"/>
@@ -2512,7 +2512,7 @@
       <c r="J90" s="48"/>
       <c r="K90" s="48"/>
     </row>
-    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="48"/>
       <c r="B91" s="49"/>
       <c r="C91" s="49"/>
@@ -2525,7 +2525,7 @@
       <c r="J91" s="48"/>
       <c r="K91" s="48"/>
     </row>
-    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="48"/>
       <c r="B92" s="49"/>
       <c r="C92" s="49"/>
@@ -2538,7 +2538,7 @@
       <c r="J92" s="48"/>
       <c r="K92" s="48"/>
     </row>
-    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="48"/>
       <c r="B93" s="49"/>
       <c r="C93" s="49"/>
@@ -2551,7 +2551,7 @@
       <c r="J93" s="48"/>
       <c r="K93" s="48"/>
     </row>
-    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="48"/>
       <c r="B94" s="49"/>
       <c r="C94" s="49"/>
@@ -2564,7 +2564,7 @@
       <c r="J94" s="48"/>
       <c r="K94" s="48"/>
     </row>
-    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="48"/>
       <c r="B95" s="49"/>
       <c r="C95" s="49"/>
@@ -2577,7 +2577,7 @@
       <c r="J95" s="48"/>
       <c r="K95" s="48"/>
     </row>
-    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="48"/>
       <c r="B96" s="49"/>
       <c r="C96" s="49"/>
@@ -2590,7 +2590,7 @@
       <c r="J96" s="48"/>
       <c r="K96" s="48"/>
     </row>
-    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="48"/>
       <c r="B97" s="49"/>
       <c r="C97" s="49"/>
